--- a/patient_data/patient_54.xlsx
+++ b/patient_data/patient_54.xlsx
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -883,13 +883,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -960,13 +960,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1010,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1214,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1567,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1617,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1644,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1694,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1848,10 +1848,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2334,19 +2334,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2411,19 +2411,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
